--- a/data/b.xlsx
+++ b/data/b.xlsx
@@ -28,13 +28,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -53,12 +56,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,72 +445,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -524,72 +536,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -615,72 +627,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -706,72 +718,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -797,72 +809,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -888,72 +900,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -979,72 +991,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -1070,72 +1082,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -1161,72 +1173,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -1252,72 +1264,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -1343,72 +1355,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
@@ -1434,72 +1446,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beneficiario</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>valor_transacionado</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valor_liberado</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>taxa_de_juros</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comissao_agente</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>extra_agente</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valor_dualcred</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>nota_fiscal</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>porcentagem_agente</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quantidade_parcelas</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>agente</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>%trans</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>%liberad</t>
         </is>
